--- a/Team-Data/2007-08/4-3-2007-08.xlsx
+++ b/Team-Data/2007-08/4-3-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -786,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -956,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1126,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.392</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,10 +1297,10 @@
         <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1251,25 +1318,25 @@
         <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
@@ -1284,13 +1351,13 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1329,10 +1396,10 @@
         <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
         <v>18</v>
@@ -1344,13 +1411,13 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.553</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
         <v>81.8</v>
@@ -1418,10 +1485,10 @@
         <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
         <v>0.361</v>
@@ -1466,13 +1533,13 @@
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1514,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,10 +1733,10 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,7 +2389,7 @@
         <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.449</v>
@@ -2334,7 +2401,7 @@
         <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O11" t="n">
         <v>16.4</v>
@@ -2343,7 +2410,7 @@
         <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R11" t="n">
         <v>12.3</v>
@@ -2352,7 +2419,7 @@
         <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>21.4</v>
@@ -2373,34 +2440,34 @@
         <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB11" t="n">
         <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
@@ -2421,10 +2488,10 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" t="n">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K13" t="n">
         <v>0.439</v>
@@ -2698,25 +2765,25 @@
         <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
         <v>26.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S13" t="n">
         <v>30.3</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
@@ -2734,7 +2801,7 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
@@ -2743,10 +2810,10 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,10 +2825,10 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
         <v>28</v>
@@ -2779,16 +2846,16 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>16</v>
@@ -2797,13 +2864,13 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>14</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,13 +3189,13 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,10 +3371,10 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3495,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3528,7 +3595,7 @@
         <v>16</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>29</v>
@@ -4247,7 +4314,7 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>14</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4423,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>14</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
@@ -4638,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4879,28 +4946,28 @@
         <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O25" t="n">
         <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
         <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U25" t="n">
         <v>21.1</v>
@@ -4915,34 +4982,34 @@
         <v>4.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
         <v>27</v>
@@ -4951,7 +5018,7 @@
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,19 +5036,19 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -4993,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="n">
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.467</v>
+        <v>0.459</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5061,16 +5128,16 @@
         <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="P26" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Q26" t="n">
         <v>0.797</v>
@@ -5079,10 +5146,10 @@
         <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U26" t="n">
         <v>19.1</v>
@@ -5091,7 +5158,7 @@
         <v>16</v>
       </c>
       <c r="W26" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.2</v>
@@ -5103,25 +5170,25 @@
         <v>22.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
@@ -5130,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>10</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
         <v>19</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>24</v>
@@ -5336,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
         <v>15</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6061,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6079,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2007-08</t>
+          <t>2008-04-03</t>
         </is>
       </c>
     </row>
